--- a/ConcordanceLibrary/LabelsAndCodes/PIOLab_RootClassification.xlsx
+++ b/ConcordanceLibrary/LabelsAndCodes/PIOLab_RootClassification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1039">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -3145,6 +3145,9 @@
   </si>
   <si>
     <t>ZZZZ</t>
+  </si>
+  <si>
+    <t>ISONum3</t>
   </si>
 </sst>
 </file>
@@ -3512,8 +3515,8 @@
   </sheetPr>
   <dimension ref="A1:Z245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3541,6 +3544,9 @@
       <c r="E1" s="1" t="s">
         <v>943</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>1038</v>
+      </c>
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -3559,6 +3565,9 @@
       <c r="E2" t="s">
         <v>1037</v>
       </c>
+      <c r="F2">
+        <v>533</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -3576,6 +3585,9 @@
       <c r="E3" t="s">
         <v>539</v>
       </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -3593,6 +3605,9 @@
       <c r="E4" t="s">
         <v>547</v>
       </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -3610,6 +3625,9 @@
       <c r="E5" t="s">
         <v>1037</v>
       </c>
+      <c r="F5">
+        <v>660</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -3627,6 +3645,9 @@
       <c r="E6" t="s">
         <v>541</v>
       </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -3644,6 +3665,9 @@
       <c r="E7" t="s">
         <v>545</v>
       </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -3661,6 +3685,9 @@
       <c r="E8" t="s">
         <v>1037</v>
       </c>
+      <c r="F8">
+        <v>530</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -3678,6 +3705,9 @@
       <c r="E9" t="s">
         <v>901</v>
       </c>
+      <c r="F9">
+        <v>784</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -3695,6 +3725,9 @@
       <c r="E10" t="s">
         <v>553</v>
       </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -3712,6 +3745,9 @@
       <c r="E11" t="s">
         <v>565</v>
       </c>
+      <c r="F11">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -3729,6 +3765,9 @@
       <c r="E12" t="s">
         <v>549</v>
       </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -3746,6 +3785,9 @@
       <c r="E13" t="s">
         <v>555</v>
       </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -3763,6 +3805,9 @@
       <c r="E14" t="s">
         <v>557</v>
       </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -3780,6 +3825,9 @@
       <c r="E15" t="s">
         <v>551</v>
       </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -3797,8 +3845,11 @@
       <c r="E16" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3814,8 +3865,11 @@
       <c r="E17" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3831,8 +3885,11 @@
       <c r="E18" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3848,8 +3905,11 @@
       <c r="E19" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3865,8 +3925,11 @@
       <c r="E20" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3882,8 +3945,11 @@
       <c r="E21" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3899,8 +3965,11 @@
       <c r="E22" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3916,8 +3985,11 @@
       <c r="E23" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3933,8 +4005,11 @@
       <c r="E24" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3950,8 +4025,11 @@
       <c r="E25" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3967,8 +4045,11 @@
       <c r="E26" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3984,8 +4065,11 @@
       <c r="E27" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4001,8 +4085,11 @@
       <c r="E28" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4018,8 +4105,11 @@
       <c r="E29" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4035,8 +4125,11 @@
       <c r="E30" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4052,8 +4145,11 @@
       <c r="E31" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4069,8 +4165,11 @@
       <c r="E32" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4086,8 +4185,11 @@
       <c r="E33" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4103,8 +4205,11 @@
       <c r="E34" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4120,8 +4225,11 @@
       <c r="E35" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4137,8 +4245,11 @@
       <c r="E36" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4154,8 +4265,11 @@
       <c r="E37" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4171,8 +4285,11 @@
       <c r="E38" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4188,8 +4305,11 @@
       <c r="E39" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4205,8 +4325,11 @@
       <c r="E40" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4222,8 +4345,11 @@
       <c r="E41" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4239,8 +4365,11 @@
       <c r="E42" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4256,8 +4385,11 @@
       <c r="E43" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4273,8 +4405,11 @@
       <c r="E44" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4290,8 +4425,11 @@
       <c r="E45" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4307,8 +4445,11 @@
       <c r="E46" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4324,8 +4465,11 @@
       <c r="E47" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4341,8 +4485,11 @@
       <c r="E48" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4358,8 +4505,11 @@
       <c r="E49" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4375,8 +4525,11 @@
       <c r="E50" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4392,8 +4545,11 @@
       <c r="E51" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4409,8 +4565,11 @@
       <c r="E52" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4426,8 +4585,11 @@
       <c r="E53" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4443,8 +4605,11 @@
       <c r="E54" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4460,8 +4625,11 @@
       <c r="E55" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4477,8 +4645,11 @@
       <c r="E56" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4494,8 +4665,11 @@
       <c r="E57" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4511,8 +4685,11 @@
       <c r="E58" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <f>A58+1</f>
         <v>58</v>
@@ -4529,8 +4706,11 @@
       <c r="E59" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" ref="A60:A123" si="0">A59+1</f>
         <v>59</v>
@@ -4547,8 +4727,11 @@
       <c r="E60" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4565,8 +4748,11 @@
       <c r="E61" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4583,8 +4769,11 @@
       <c r="E62" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4601,8 +4790,11 @@
       <c r="E63" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4619,8 +4811,11 @@
       <c r="E64" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4637,8 +4832,11 @@
       <c r="E65" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4655,8 +4853,11 @@
       <c r="E66" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4673,8 +4874,11 @@
       <c r="E67" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -4691,8 +4895,11 @@
       <c r="E68" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -4709,8 +4916,11 @@
       <c r="E69" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -4727,8 +4937,11 @@
       <c r="E70" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -4745,8 +4958,11 @@
       <c r="E71" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -4763,8 +4979,11 @@
       <c r="E72" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -4781,8 +5000,11 @@
       <c r="E73" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -4799,8 +5021,11 @@
       <c r="E74" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -4817,8 +5042,11 @@
       <c r="E75" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -4835,8 +5063,11 @@
       <c r="E76" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -4853,8 +5084,11 @@
       <c r="E77" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -4871,8 +5105,11 @@
       <c r="E78" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -4889,8 +5126,11 @@
       <c r="E79" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -4907,8 +5147,11 @@
       <c r="E80" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -4925,8 +5168,11 @@
       <c r="E81" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -4943,8 +5189,11 @@
       <c r="E82" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -4961,8 +5210,11 @@
       <c r="E83" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -4979,8 +5231,11 @@
       <c r="E84" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -4997,8 +5252,11 @@
       <c r="E85" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -5015,8 +5273,11 @@
       <c r="E86" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -5033,8 +5294,11 @@
       <c r="E87" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -5051,8 +5315,11 @@
       <c r="E88" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -5069,8 +5336,11 @@
       <c r="E89" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -5087,8 +5357,11 @@
       <c r="E90" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -5105,8 +5378,11 @@
       <c r="E91" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -5123,8 +5399,11 @@
       <c r="E92" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -5141,8 +5420,11 @@
       <c r="E93" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -5159,8 +5441,11 @@
       <c r="E94" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="0"/>
         <v>94</v>
@@ -5177,8 +5462,11 @@
       <c r="E95" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -5195,8 +5483,11 @@
       <c r="E96" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="0"/>
         <v>96</v>
@@ -5213,8 +5504,11 @@
       <c r="E97" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="0"/>
         <v>97</v>
@@ -5231,8 +5525,11 @@
       <c r="E98" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="0"/>
         <v>98</v>
@@ -5249,8 +5546,11 @@
       <c r="E99" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -5267,8 +5567,11 @@
       <c r="E100" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -5285,8 +5588,11 @@
       <c r="E101" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -5303,8 +5609,11 @@
       <c r="E102" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -5321,8 +5630,11 @@
       <c r="E103" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F103">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -5339,8 +5651,11 @@
       <c r="E104" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -5357,8 +5672,11 @@
       <c r="E105" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F105">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -5375,8 +5693,11 @@
       <c r="E106" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F106">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -5393,8 +5714,11 @@
       <c r="E107" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F107">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -5411,8 +5735,11 @@
       <c r="E108" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F108" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -5429,8 +5756,11 @@
       <c r="E109" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F109">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -5447,8 +5777,11 @@
       <c r="E110" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F110">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -5465,8 +5798,11 @@
       <c r="E111" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F111">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -5483,8 +5819,11 @@
       <c r="E112" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F112">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -5501,8 +5840,11 @@
       <c r="E113" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F113">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -5519,8 +5861,11 @@
       <c r="E114" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F114">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -5537,8 +5882,11 @@
       <c r="E115" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F115">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -5555,8 +5903,11 @@
       <c r="E116" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F116">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -5573,8 +5924,11 @@
       <c r="E117" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F117">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -5591,8 +5945,11 @@
       <c r="E118" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F118">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -5609,8 +5966,11 @@
       <c r="E119" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F119">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -5627,8 +5987,11 @@
       <c r="E120" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F120">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -5645,8 +6008,11 @@
       <c r="E121" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F121">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -5663,8 +6029,11 @@
       <c r="E122" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F122">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="0"/>
         <v>122</v>
@@ -5681,8 +6050,11 @@
       <c r="E123" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F123">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" ref="A124:A187" si="1">A123+1</f>
         <v>123</v>
@@ -5699,8 +6071,11 @@
       <c r="E124" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F124">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5717,8 +6092,11 @@
       <c r="E125" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F125">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5735,8 +6113,11 @@
       <c r="E126" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F126">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5753,8 +6134,11 @@
       <c r="E127" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F127">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5771,8 +6155,11 @@
       <c r="E128" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F128">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5789,8 +6176,11 @@
       <c r="E129" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F129">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5807,8 +6197,11 @@
       <c r="E130" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F130">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -5825,8 +6218,11 @@
       <c r="E131" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F131">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -5843,8 +6239,11 @@
       <c r="E132" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F132">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -5861,8 +6260,11 @@
       <c r="E133" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F133">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -5879,8 +6281,11 @@
       <c r="E134" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F134">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -5897,8 +6302,11 @@
       <c r="E135" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F135">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="1"/>
         <v>135</v>
@@ -5915,8 +6323,11 @@
       <c r="E136" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F136">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -5933,8 +6344,11 @@
       <c r="E137" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F137">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -5951,8 +6365,11 @@
       <c r="E138" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F138">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -5969,8 +6386,11 @@
       <c r="E139" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F139">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="1"/>
         <v>139</v>
@@ -5987,8 +6407,11 @@
       <c r="E140" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F140">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -6005,8 +6428,11 @@
       <c r="E141" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F141">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -6023,8 +6449,11 @@
       <c r="E142" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F142">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -6041,8 +6470,11 @@
       <c r="E143" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F143">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -6059,8 +6491,11 @@
       <c r="E144" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F144">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -6077,8 +6512,11 @@
       <c r="E145" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F145">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" si="1"/>
         <v>145</v>
@@ -6095,8 +6533,11 @@
       <c r="E146" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F146">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" si="1"/>
         <v>146</v>
@@ -6113,8 +6554,11 @@
       <c r="E147" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F147">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -6131,8 +6575,11 @@
       <c r="E148" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F148">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -6149,8 +6596,11 @@
       <c r="E149" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F149">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -6167,8 +6617,11 @@
       <c r="E150" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F150">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -6185,8 +6638,11 @@
       <c r="E151" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F151">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -6203,8 +6659,11 @@
       <c r="E152" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F152">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" si="1"/>
         <v>152</v>
@@ -6221,8 +6680,11 @@
       <c r="E153" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F153">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <f t="shared" si="1"/>
         <v>153</v>
@@ -6239,8 +6701,11 @@
       <c r="E154" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F154">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" si="1"/>
         <v>154</v>
@@ -6257,8 +6722,11 @@
       <c r="E155" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F155">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <f t="shared" si="1"/>
         <v>155</v>
@@ -6275,8 +6743,11 @@
       <c r="E156" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F156">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <f t="shared" si="1"/>
         <v>156</v>
@@ -6293,8 +6764,11 @@
       <c r="E157" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F157">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <f t="shared" si="1"/>
         <v>157</v>
@@ -6311,8 +6785,11 @@
       <c r="E158" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F158">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <f t="shared" si="1"/>
         <v>158</v>
@@ -6329,8 +6806,11 @@
       <c r="E159" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F159">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <f t="shared" si="1"/>
         <v>159</v>
@@ -6347,8 +6827,11 @@
       <c r="E160" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F160">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -6365,8 +6848,11 @@
       <c r="E161" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F161">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -6383,8 +6869,11 @@
       <c r="E162" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F162">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <f t="shared" si="1"/>
         <v>162</v>
@@ -6401,8 +6890,11 @@
       <c r="E163" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F163">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <f t="shared" si="1"/>
         <v>163</v>
@@ -6419,8 +6911,11 @@
       <c r="E164" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F164">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <f t="shared" si="1"/>
         <v>164</v>
@@ -6437,8 +6932,11 @@
       <c r="E165" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F165">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -6455,8 +6953,11 @@
       <c r="E166" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F166">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" si="1"/>
         <v>166</v>
@@ -6473,8 +6974,11 @@
       <c r="E167" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F167">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <f t="shared" si="1"/>
         <v>167</v>
@@ -6491,8 +6995,11 @@
       <c r="E168" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F168">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <f t="shared" si="1"/>
         <v>168</v>
@@ -6509,8 +7016,11 @@
       <c r="E169" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F169">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <f t="shared" si="1"/>
         <v>169</v>
@@ -6527,8 +7037,11 @@
       <c r="E170" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F170">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -6545,8 +7058,11 @@
       <c r="E171" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F171">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" si="1"/>
         <v>171</v>
@@ -6563,8 +7079,11 @@
       <c r="E172" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F172">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" si="1"/>
         <v>172</v>
@@ -6581,8 +7100,11 @@
       <c r="E173" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F173">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" si="1"/>
         <v>173</v>
@@ -6599,8 +7121,11 @@
       <c r="E174" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F174">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" si="1"/>
         <v>174</v>
@@ -6617,8 +7142,11 @@
       <c r="E175" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F175">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <f t="shared" si="1"/>
         <v>175</v>
@@ -6635,8 +7163,11 @@
       <c r="E176" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F176">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <f t="shared" si="1"/>
         <v>176</v>
@@ -6653,8 +7184,11 @@
       <c r="E177" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F177">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <f t="shared" si="1"/>
         <v>177</v>
@@ -6671,8 +7205,11 @@
       <c r="E178" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F178">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <f t="shared" si="1"/>
         <v>178</v>
@@ -6689,8 +7226,11 @@
       <c r="E179" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F179">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <f t="shared" si="1"/>
         <v>179</v>
@@ -6707,8 +7247,11 @@
       <c r="E180" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F180">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <f t="shared" si="1"/>
         <v>180</v>
@@ -6725,8 +7268,11 @@
       <c r="E181" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F181">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <f t="shared" si="1"/>
         <v>181</v>
@@ -6743,8 +7289,11 @@
       <c r="E182" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F182">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <f t="shared" si="1"/>
         <v>182</v>
@@ -6761,8 +7310,11 @@
       <c r="E183" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F183">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <f t="shared" si="1"/>
         <v>183</v>
@@ -6779,8 +7331,11 @@
       <c r="E184" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F184">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <f t="shared" si="1"/>
         <v>184</v>
@@ -6797,8 +7352,11 @@
       <c r="E185" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F185">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <f t="shared" si="1"/>
         <v>185</v>
@@ -6815,8 +7373,11 @@
       <c r="E186" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <f t="shared" si="1"/>
         <v>186</v>
@@ -6833,8 +7394,11 @@
       <c r="E187" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F187" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <f t="shared" ref="A188:A222" si="2">A187+1</f>
         <v>187</v>
@@ -6851,8 +7415,11 @@
       <c r="E188" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F188">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6869,8 +7436,11 @@
       <c r="E189" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F189">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6887,8 +7457,11 @@
       <c r="E190" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F190">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6905,8 +7478,11 @@
       <c r="E191" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F191">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6923,8 +7499,11 @@
       <c r="E192" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F192">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6941,8 +7520,11 @@
       <c r="E193" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F193">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6959,8 +7541,11 @@
       <c r="E194" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F194">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -6977,8 +7562,11 @@
       <c r="E195" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F195">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -6995,8 +7583,11 @@
       <c r="E196" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F196">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -7013,8 +7604,11 @@
       <c r="E197" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F197">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -7031,8 +7625,11 @@
       <c r="E198" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F198">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -7049,8 +7646,11 @@
       <c r="E199" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F199">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -7067,8 +7667,11 @@
       <c r="E200" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F200">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -7085,8 +7688,11 @@
       <c r="E201" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F201">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -7103,8 +7709,11 @@
       <c r="E202" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F202">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -7121,8 +7730,11 @@
       <c r="E203" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F203">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -7139,8 +7751,11 @@
       <c r="E204" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F204" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -7157,8 +7772,11 @@
       <c r="E205" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F205">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -7175,8 +7793,11 @@
       <c r="E206" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F206">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -7193,8 +7814,11 @@
       <c r="E207" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F207">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -7211,8 +7835,11 @@
       <c r="E208" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F208">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -7229,8 +7856,11 @@
       <c r="E209" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F209">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -7247,8 +7877,11 @@
       <c r="E210" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F210">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -7265,8 +7898,11 @@
       <c r="E211" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F211">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -7283,8 +7919,11 @@
       <c r="E212" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F212">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -7301,8 +7940,11 @@
       <c r="E213" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F213">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -7319,8 +7961,11 @@
       <c r="E214" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F214">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -7337,8 +7982,11 @@
       <c r="E215" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F215">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -7355,8 +8003,11 @@
       <c r="E216" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F216">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -7373,8 +8024,11 @@
       <c r="E217" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F217">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -7391,8 +8045,11 @@
       <c r="E218" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F218">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -7409,8 +8066,11 @@
       <c r="E219" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F219">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -7427,8 +8087,11 @@
       <c r="E220" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F220">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -7445,8 +8108,11 @@
       <c r="E221" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F221">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -7462,6 +8128,9 @@
       </c>
       <c r="E222" t="s">
         <v>875</v>
+      </c>
+      <c r="F222">
+        <v>716</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.35">
@@ -7672,7 +8341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D247:AK251 J2:AJ147 F148:AJ246 E2:E41 E43:E60 E177:E190 E63:E64 E74:E79 E81:E100 E102:E149 E202:E210 E151:E175 E239:E241 E213:E214 E192:E200 E66:E72 E216:E230 E232:E236 E243:E246 C2:C246 F2:F147">
+  <conditionalFormatting sqref="D247:AK251 J2:AJ147 F223:AJ246 E2:E41 E43:E60 E177:E190 E63:E64 E74:E79 E81:E100 E102:E149 E202:E210 E151:E175 E239:E241 E213:E214 E192:E200 E66:E72 E216:E230 E232:E236 E243:E246 C2:C246 G148:AJ222 F50 F60 F108 F187 F204">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8607,8 +9276,8 @@
   </sheetPr>
   <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E267"/>
+    <sheetView topLeftCell="A236" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ConcordanceLibrary/LabelsAndCodes/PIOLab_RootClassification.xlsx
+++ b/ConcordanceLibrary/LabelsAndCodes/PIOLab_RootClassification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -621,12 +621,6 @@
     <t>Cast iron</t>
   </si>
   <si>
-    <t>Magnetite</t>
-  </si>
-  <si>
-    <t>Hematite</t>
-  </si>
-  <si>
     <t>Other ferrous minerals</t>
   </si>
   <si>
@@ -666,9 +660,6 @@
     <t>Agglomeration</t>
   </si>
   <si>
-    <t>Fluxes</t>
-  </si>
-  <si>
     <t>Other use</t>
   </si>
   <si>
@@ -3160,6 +3151,15 @@
   </si>
   <si>
     <t>Flat rolling nec 5</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Hematite &amp; Magnetite</t>
+  </si>
+  <si>
+    <t>Limonite</t>
   </si>
 </sst>
 </file>
@@ -3572,22 +3572,22 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Z1" s="8"/>
     </row>
@@ -3599,13 +3599,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F2">
         <v>533</v>
@@ -3619,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -3639,13 +3639,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -3659,13 +3659,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F5">
         <v>660</v>
@@ -3679,13 +3679,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -3699,13 +3699,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -3716,16 +3716,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C8" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D8" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E8" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F8">
         <v>530</v>
@@ -3739,13 +3739,13 @@
         <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F9">
         <v>784</v>
@@ -3759,13 +3759,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F10">
         <v>32</v>
@@ -3779,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>51</v>
@@ -3799,13 +3799,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F12">
         <v>28</v>
@@ -3819,13 +3819,13 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F13">
         <v>36</v>
@@ -3839,13 +3839,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F14">
         <v>40</v>
@@ -3859,13 +3859,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E15" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F15">
         <v>31</v>
@@ -3879,13 +3879,13 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F16">
         <v>108</v>
@@ -3899,13 +3899,13 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D17" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E17" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F17">
         <v>56</v>
@@ -3919,13 +3919,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D18" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E18" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F18">
         <v>204</v>
@@ -3939,13 +3939,13 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F19">
         <v>854</v>
@@ -3959,13 +3959,13 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D20" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E20" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -3979,13 +3979,13 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -3999,13 +3999,13 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E22" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F22">
         <v>48</v>
@@ -4019,13 +4019,13 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D23" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E23" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F23">
         <v>44</v>
@@ -4036,16 +4036,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C24" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D24" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E24" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F24">
         <v>70</v>
@@ -4059,13 +4059,13 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F25">
         <v>112</v>
@@ -4079,13 +4079,13 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D26" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E26" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F26">
         <v>84</v>
@@ -4099,13 +4099,13 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D27" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E27" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F27">
         <v>60</v>
@@ -4119,13 +4119,13 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E28" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F28">
         <v>68</v>
@@ -4139,13 +4139,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D29" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E29" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F29">
         <v>76</v>
@@ -4159,13 +4159,13 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E30" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F30">
         <v>52</v>
@@ -4179,13 +4179,13 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D31" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E31" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F31">
         <v>96</v>
@@ -4199,13 +4199,13 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E32" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F32">
         <v>64</v>
@@ -4219,13 +4219,13 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D33" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E33" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F33">
         <v>72</v>
@@ -4236,16 +4236,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C34" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D34" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E34" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F34">
         <v>140</v>
@@ -4259,13 +4259,13 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D35" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E35" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F35">
         <v>124</v>
@@ -4276,16 +4276,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C36" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D36" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E36" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F36">
         <v>756</v>
@@ -4299,13 +4299,13 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E37" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F37">
         <v>152</v>
@@ -4319,13 +4319,13 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E38" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F38">
         <v>156</v>
@@ -4339,13 +4339,13 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D39" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E39" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F39">
         <v>384</v>
@@ -4359,13 +4359,13 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D40" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E40" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F40">
         <v>120</v>
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E41" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F41">
         <v>180</v>
@@ -4396,16 +4396,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C42" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D42" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E42" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F42">
         <v>178</v>
@@ -4416,16 +4416,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C43" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D43" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E43" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F43">
         <v>184</v>
@@ -4439,13 +4439,13 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D44" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E44" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F44">
         <v>170</v>
@@ -4459,13 +4459,13 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D45" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E45" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F45">
         <v>174</v>
@@ -4476,16 +4476,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C46" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D46" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E46" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F46">
         <v>132</v>
@@ -4499,13 +4499,13 @@
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D47" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E47" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F47">
         <v>188</v>
@@ -4519,13 +4519,13 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D48" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E48" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F48">
         <v>200</v>
@@ -4539,13 +4539,13 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D49" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E49" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F49">
         <v>192</v>
@@ -4556,19 +4556,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C50" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D50" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E50" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F50" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -4576,16 +4576,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C51" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D51" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E51" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F51">
         <v>136</v>
@@ -4599,13 +4599,13 @@
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D52" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E52" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F52">
         <v>196</v>
@@ -4616,16 +4616,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C53" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D53" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E53" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F53">
         <v>203</v>
@@ -4639,13 +4639,13 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D54" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E54" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F54">
         <v>276</v>
@@ -4659,13 +4659,13 @@
         <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D55" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E55" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F55">
         <v>262</v>
@@ -4679,13 +4679,13 @@
         <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D56" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E56" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F56">
         <v>212</v>
@@ -4699,13 +4699,13 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D57" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E57" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F57">
         <v>208</v>
@@ -4716,16 +4716,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C58" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D58" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E58" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F58">
         <v>214</v>
@@ -4737,16 +4737,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C59" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D59" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E59" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F59">
         <v>230</v>
@@ -4758,19 +4758,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C60" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D60" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E60" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F60" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -4782,13 +4782,13 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D61" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E61" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F61">
         <v>12</v>
@@ -4803,13 +4803,13 @@
         <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D62" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E62" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F62">
         <v>218</v>
@@ -4824,13 +4824,13 @@
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D63" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E63" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F63">
         <v>818</v>
@@ -4845,13 +4845,13 @@
         <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D64" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E64" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F64">
         <v>232</v>
@@ -4866,13 +4866,13 @@
         <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D65" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E65" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F65">
         <v>724</v>
@@ -4887,13 +4887,13 @@
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D66" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E66" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F66">
         <v>233</v>
@@ -4905,16 +4905,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C67" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D67" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E67" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F67">
         <v>231</v>
@@ -4929,13 +4929,13 @@
         <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D68" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E68" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F68">
         <v>246</v>
@@ -4947,16 +4947,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C69" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D69" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E69" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F69">
         <v>242</v>
@@ -4971,13 +4971,13 @@
         <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D70" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E70" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F70">
         <v>250</v>
@@ -4989,16 +4989,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C71" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D71" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E71" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F71">
         <v>583</v>
@@ -5013,13 +5013,13 @@
         <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D72" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E72" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F72">
         <v>266</v>
@@ -5031,16 +5031,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C73" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D73" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E73" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="F73">
         <v>826</v>
@@ -5055,13 +5055,13 @@
         <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D74" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E74" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F74">
         <v>268</v>
@@ -5076,13 +5076,13 @@
         <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D75" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E75" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F75">
         <v>288</v>
@@ -5097,13 +5097,13 @@
         <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D76" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E76" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F76">
         <v>324</v>
@@ -5118,13 +5118,13 @@
         <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D77" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E77" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F77">
         <v>270</v>
@@ -5139,13 +5139,13 @@
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D78" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E78" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F78">
         <v>624</v>
@@ -5160,13 +5160,13 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D79" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E79" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F79">
         <v>226</v>
@@ -5181,13 +5181,13 @@
         <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D80" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E80" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F80">
         <v>300</v>
@@ -5202,13 +5202,13 @@
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D81" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E81" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F81">
         <v>308</v>
@@ -5223,13 +5223,13 @@
         <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D82" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E82" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F82">
         <v>304</v>
@@ -5244,13 +5244,13 @@
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D83" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E83" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F83">
         <v>320</v>
@@ -5265,13 +5265,13 @@
         <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D84" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E84" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F84">
         <v>328</v>
@@ -5283,16 +5283,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C85" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D85" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E85" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F85">
         <v>344</v>
@@ -5307,13 +5307,13 @@
         <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D86" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E86" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F86">
         <v>340</v>
@@ -5328,13 +5328,13 @@
         <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D87" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E87" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F87">
         <v>191</v>
@@ -5349,13 +5349,13 @@
         <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D88" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E88" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F88">
         <v>332</v>
@@ -5370,13 +5370,13 @@
         <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D89" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E89" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F89">
         <v>348</v>
@@ -5391,13 +5391,13 @@
         <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D90" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E90" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F90">
         <v>360</v>
@@ -5412,13 +5412,13 @@
         <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D91" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E91" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F91">
         <v>356</v>
@@ -5433,13 +5433,13 @@
         <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D92" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E92" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F92">
         <v>372</v>
@@ -5451,16 +5451,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="C93" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D93" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E93" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F93">
         <v>364</v>
@@ -5475,13 +5475,13 @@
         <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D94" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E94" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F94">
         <v>368</v>
@@ -5496,13 +5496,13 @@
         <v>71</v>
       </c>
       <c r="C95" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D95" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E95" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F95">
         <v>352</v>
@@ -5517,13 +5517,13 @@
         <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D96" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E96" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F96">
         <v>376</v>
@@ -5538,13 +5538,13 @@
         <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D97" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E97" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F97">
         <v>380</v>
@@ -5559,13 +5559,13 @@
         <v>78</v>
       </c>
       <c r="C98" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D98" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E98" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F98">
         <v>388</v>
@@ -5580,13 +5580,13 @@
         <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D99" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E99" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F99">
         <v>400</v>
@@ -5601,13 +5601,13 @@
         <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D100" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E100" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F100">
         <v>392</v>
@@ -5622,13 +5622,13 @@
         <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D101" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E101" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F101">
         <v>398</v>
@@ -5643,13 +5643,13 @@
         <v>82</v>
       </c>
       <c r="C102" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D102" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E102" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F102">
         <v>404</v>
@@ -5664,13 +5664,13 @@
         <v>85</v>
       </c>
       <c r="C103" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D103" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E103" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F103">
         <v>417</v>
@@ -5685,13 +5685,13 @@
         <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D104" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E104" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F104">
         <v>116</v>
@@ -5706,13 +5706,13 @@
         <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D105" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E105" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F105">
         <v>296</v>
@@ -5727,13 +5727,13 @@
         <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D106" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E106" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F106">
         <v>659</v>
@@ -5745,16 +5745,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C107" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D107" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E107" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F107">
         <v>410</v>
@@ -5766,19 +5766,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C108" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D108" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E108" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F108" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -5790,13 +5790,13 @@
         <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D109" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E109" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F109">
         <v>414</v>
@@ -5808,16 +5808,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C110" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D110" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E110" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F110">
         <v>418</v>
@@ -5832,13 +5832,13 @@
         <v>87</v>
       </c>
       <c r="C111" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D111" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E111" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F111">
         <v>422</v>
@@ -5853,13 +5853,13 @@
         <v>89</v>
       </c>
       <c r="C112" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D112" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E112" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F112">
         <v>430</v>
@@ -5871,16 +5871,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C113" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D113" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E113" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F113">
         <v>434</v>
@@ -5895,13 +5895,13 @@
         <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D114" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E114" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F114">
         <v>662</v>
@@ -5916,13 +5916,13 @@
         <v>90</v>
       </c>
       <c r="C115" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D115" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E115" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F115">
         <v>438</v>
@@ -5937,13 +5937,13 @@
         <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D116" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E116" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F116">
         <v>144</v>
@@ -5958,13 +5958,13 @@
         <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D117" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E117" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F117">
         <v>426</v>
@@ -5979,13 +5979,13 @@
         <v>91</v>
       </c>
       <c r="C118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D118" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E118" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F118">
         <v>440</v>
@@ -6000,13 +6000,13 @@
         <v>92</v>
       </c>
       <c r="C119" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D119" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E119" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F119">
         <v>442</v>
@@ -6021,13 +6021,13 @@
         <v>86</v>
       </c>
       <c r="C120" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D120" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E120" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F120">
         <v>428</v>
@@ -6039,16 +6039,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C121" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D121" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E121" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F121">
         <v>446</v>
@@ -6063,13 +6063,13 @@
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D122" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E122" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F122">
         <v>504</v>
@@ -6084,13 +6084,13 @@
         <v>102</v>
       </c>
       <c r="C123" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D123" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E123" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F123">
         <v>492</v>
@@ -6102,16 +6102,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C124" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D124" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E124" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F124">
         <v>498</v>
@@ -6126,13 +6126,13 @@
         <v>93</v>
       </c>
       <c r="C125" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D125" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E125" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F125">
         <v>450</v>
@@ -6147,13 +6147,13 @@
         <v>96</v>
       </c>
       <c r="C126" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D126" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E126" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F126">
         <v>462</v>
@@ -6168,13 +6168,13 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D127" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E127" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F127">
         <v>484</v>
@@ -6186,16 +6186,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C128" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D128" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E128" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F128">
         <v>584</v>
@@ -6207,16 +6207,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C129" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D129" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E129" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F129">
         <v>807</v>
@@ -6231,13 +6231,13 @@
         <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D130" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E130" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F130">
         <v>466</v>
@@ -6252,13 +6252,13 @@
         <v>98</v>
       </c>
       <c r="C131" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D131" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E131" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F131">
         <v>470</v>
@@ -6273,13 +6273,13 @@
         <v>108</v>
       </c>
       <c r="C132" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D132" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E132" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F132">
         <v>104</v>
@@ -6294,13 +6294,13 @@
         <v>104</v>
       </c>
       <c r="C133" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D133" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E133" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F133">
         <v>499</v>
@@ -6315,13 +6315,13 @@
         <v>103</v>
       </c>
       <c r="C134" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D134" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E134" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F134">
         <v>496</v>
@@ -6336,13 +6336,13 @@
         <v>107</v>
       </c>
       <c r="C135" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D135" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E135" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F135">
         <v>508</v>
@@ -6357,13 +6357,13 @@
         <v>99</v>
       </c>
       <c r="C136" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D136" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E136" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F136">
         <v>478</v>
@@ -6378,13 +6378,13 @@
         <v>105</v>
       </c>
       <c r="C137" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D137" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E137" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F137">
         <v>500</v>
@@ -6399,13 +6399,13 @@
         <v>100</v>
       </c>
       <c r="C138" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D138" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E138" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F138">
         <v>480</v>
@@ -6420,13 +6420,13 @@
         <v>94</v>
       </c>
       <c r="C139" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D139" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E139" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F139">
         <v>454</v>
@@ -6441,13 +6441,13 @@
         <v>95</v>
       </c>
       <c r="C140" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D140" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E140" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F140">
         <v>458</v>
@@ -6462,13 +6462,13 @@
         <v>109</v>
       </c>
       <c r="C141" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D141" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E141" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F141">
         <v>516</v>
@@ -6483,13 +6483,13 @@
         <v>113</v>
       </c>
       <c r="C142" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D142" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E142" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F142">
         <v>540</v>
@@ -6504,13 +6504,13 @@
         <v>116</v>
       </c>
       <c r="C143" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D143" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E143" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F143">
         <v>562</v>
@@ -6525,13 +6525,13 @@
         <v>117</v>
       </c>
       <c r="C144" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D144" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E144" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F144">
         <v>566</v>
@@ -6546,13 +6546,13 @@
         <v>115</v>
       </c>
       <c r="C145" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D145" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E145" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F145">
         <v>558</v>
@@ -6567,13 +6567,13 @@
         <v>112</v>
       </c>
       <c r="C146" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D146" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E146" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F146">
         <v>528</v>
@@ -6588,13 +6588,13 @@
         <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D147" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E147" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F147">
         <v>578</v>
@@ -6609,13 +6609,13 @@
         <v>111</v>
       </c>
       <c r="C148" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D148" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E148" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F148">
         <v>524</v>
@@ -6630,13 +6630,13 @@
         <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D149" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E149" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F149">
         <v>520</v>
@@ -6651,13 +6651,13 @@
         <v>114</v>
       </c>
       <c r="C150" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D150" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E150" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F150">
         <v>554</v>
@@ -6672,13 +6672,13 @@
         <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D151" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E151" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F151">
         <v>512</v>
@@ -6693,13 +6693,13 @@
         <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D152" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E152" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F152">
         <v>586</v>
@@ -6714,13 +6714,13 @@
         <v>122</v>
       </c>
       <c r="C153" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D153" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E153" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F153">
         <v>591</v>
@@ -6735,13 +6735,13 @@
         <v>125</v>
       </c>
       <c r="C154" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D154" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E154" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F154">
         <v>604</v>
@@ -6756,13 +6756,13 @@
         <v>126</v>
       </c>
       <c r="C155" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D155" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E155" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F155">
         <v>608</v>
@@ -6777,13 +6777,13 @@
         <v>121</v>
       </c>
       <c r="C156" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D156" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E156" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F156">
         <v>585</v>
@@ -6798,13 +6798,13 @@
         <v>123</v>
       </c>
       <c r="C157" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D157" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E157" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F157">
         <v>598</v>
@@ -6819,13 +6819,13 @@
         <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D158" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E158" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F158">
         <v>616</v>
@@ -6840,13 +6840,13 @@
         <v>129</v>
       </c>
       <c r="C159" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D159" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E159" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F159">
         <v>630</v>
@@ -6858,16 +6858,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C160" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D160" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E160" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F160">
         <v>408</v>
@@ -6882,13 +6882,13 @@
         <v>128</v>
       </c>
       <c r="C161" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D161" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E161" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F161">
         <v>620</v>
@@ -6903,13 +6903,13 @@
         <v>124</v>
       </c>
       <c r="C162" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D162" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E162" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F162">
         <v>600</v>
@@ -6921,16 +6921,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C163" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D163" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E163" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F163">
         <v>275</v>
@@ -6945,13 +6945,13 @@
         <v>55</v>
       </c>
       <c r="C164" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D164" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E164" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F164">
         <v>258</v>
@@ -6966,13 +6966,13 @@
         <v>130</v>
       </c>
       <c r="C165" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D165" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E165" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F165">
         <v>634</v>
@@ -6987,13 +6987,13 @@
         <v>131</v>
       </c>
       <c r="C166" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D166" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E166" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F166">
         <v>642</v>
@@ -7008,13 +7008,13 @@
         <v>132</v>
       </c>
       <c r="C167" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D167" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E167" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F167">
         <v>643</v>
@@ -7029,13 +7029,13 @@
         <v>133</v>
       </c>
       <c r="C168" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D168" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E168" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F168">
         <v>646</v>
@@ -7050,13 +7050,13 @@
         <v>139</v>
       </c>
       <c r="C169" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D169" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E169" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F169">
         <v>682</v>
@@ -7071,13 +7071,13 @@
         <v>152</v>
       </c>
       <c r="C170" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D170" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E170" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F170">
         <v>736</v>
@@ -7092,13 +7092,13 @@
         <v>149</v>
       </c>
       <c r="C171" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D171" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E171" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F171">
         <v>728</v>
@@ -7113,13 +7113,13 @@
         <v>140</v>
       </c>
       <c r="C172" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D172" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E172" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F172">
         <v>686</v>
@@ -7134,13 +7134,13 @@
         <v>144</v>
       </c>
       <c r="C173" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D173" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E173" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F173">
         <v>702</v>
@@ -7152,16 +7152,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C174" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D174" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E174" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F174">
         <v>90</v>
@@ -7176,13 +7176,13 @@
         <v>143</v>
       </c>
       <c r="C175" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D175" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E175" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F175">
         <v>694</v>
@@ -7197,13 +7197,13 @@
         <v>49</v>
       </c>
       <c r="C176" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D176" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E176" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F176">
         <v>222</v>
@@ -7218,13 +7218,13 @@
         <v>137</v>
       </c>
       <c r="C177" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D177" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E177" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F177">
         <v>674</v>
@@ -7239,13 +7239,13 @@
         <v>147</v>
       </c>
       <c r="C178" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D178" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E178" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F178">
         <v>706</v>
@@ -7260,13 +7260,13 @@
         <v>141</v>
       </c>
       <c r="C179" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D179" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E179" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F179">
         <v>688</v>
@@ -7281,13 +7281,13 @@
         <v>138</v>
       </c>
       <c r="C180" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D180" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E180" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F180">
         <v>678</v>
@@ -7302,13 +7302,13 @@
         <v>152</v>
       </c>
       <c r="C181" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D181" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E181" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F181">
         <v>729</v>
@@ -7323,13 +7323,13 @@
         <v>153</v>
       </c>
       <c r="C182" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D182" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E182" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F182">
         <v>740</v>
@@ -7344,13 +7344,13 @@
         <v>145</v>
       </c>
       <c r="C183" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D183" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E183" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F183">
         <v>703</v>
@@ -7365,13 +7365,13 @@
         <v>146</v>
       </c>
       <c r="C184" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D184" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E184" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F184">
         <v>705</v>
@@ -7386,13 +7386,13 @@
         <v>155</v>
       </c>
       <c r="C185" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D185" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E185" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F185">
         <v>752</v>
@@ -7407,13 +7407,13 @@
         <v>154</v>
       </c>
       <c r="C186" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D186" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E186" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F186">
         <v>748</v>
@@ -7425,19 +7425,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C187" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D187" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E187" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F187" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -7449,13 +7449,13 @@
         <v>142</v>
       </c>
       <c r="C188" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D188" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E188" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F188">
         <v>690</v>
@@ -7467,16 +7467,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C189" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D189" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E189" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F189">
         <v>760</v>
@@ -7488,16 +7488,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C190" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D190" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E190" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F190">
         <v>796</v>
@@ -7512,13 +7512,13 @@
         <v>33</v>
       </c>
       <c r="C191" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D191" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E191" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F191">
         <v>148</v>
@@ -7533,13 +7533,13 @@
         <v>160</v>
       </c>
       <c r="C192" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D192" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E192" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F192">
         <v>768</v>
@@ -7554,13 +7554,13 @@
         <v>158</v>
       </c>
       <c r="C193" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D193" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E193" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F193">
         <v>764</v>
@@ -7575,13 +7575,13 @@
         <v>157</v>
       </c>
       <c r="C194" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D194" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E194" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F194">
         <v>762</v>
@@ -7596,13 +7596,13 @@
         <v>165</v>
       </c>
       <c r="C195" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D195" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E195" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F195">
         <v>795</v>
@@ -7617,13 +7617,13 @@
         <v>159</v>
       </c>
       <c r="C196" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D196" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E196" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F196">
         <v>626</v>
@@ -7638,13 +7638,13 @@
         <v>161</v>
       </c>
       <c r="C197" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D197" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E197" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F197">
         <v>776</v>
@@ -7659,13 +7659,13 @@
         <v>162</v>
       </c>
       <c r="C198" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D198" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E198" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F198">
         <v>780</v>
@@ -7680,13 +7680,13 @@
         <v>163</v>
       </c>
       <c r="C199" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D199" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E199" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F199">
         <v>788</v>
@@ -7701,13 +7701,13 @@
         <v>164</v>
       </c>
       <c r="C200" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D200" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E200" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F200">
         <v>792</v>
@@ -7722,13 +7722,13 @@
         <v>166</v>
       </c>
       <c r="C201" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D201" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E201" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F201">
         <v>798</v>
@@ -7743,13 +7743,13 @@
         <v>156</v>
       </c>
       <c r="C202" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D202" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E202" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F202">
         <v>158</v>
@@ -7761,16 +7761,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C203" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D203" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E203" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F203">
         <v>834</v>
@@ -7782,19 +7782,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C204" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D204" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E204" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F204" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -7806,13 +7806,13 @@
         <v>167</v>
       </c>
       <c r="C205" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D205" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E205" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F205">
         <v>800</v>
@@ -7827,13 +7827,13 @@
         <v>168</v>
       </c>
       <c r="C206" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D206" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E206" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F206">
         <v>804</v>
@@ -7848,13 +7848,13 @@
         <v>170</v>
       </c>
       <c r="C207" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D207" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E207" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F207">
         <v>858</v>
@@ -7866,16 +7866,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C208" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D208" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E208" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F208">
         <v>840</v>
@@ -7887,16 +7887,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C209" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D209" t="s">
         <v>1016</v>
       </c>
-      <c r="D209" t="s">
-        <v>1019</v>
-      </c>
       <c r="E209" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F209">
         <v>810</v>
@@ -7911,13 +7911,13 @@
         <v>171</v>
       </c>
       <c r="C210" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D210" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E210" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="F210">
         <v>860</v>
@@ -7929,16 +7929,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C211" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D211" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E211" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F211">
         <v>670</v>
@@ -7950,16 +7950,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C212" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D212" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E212" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F212">
         <v>862</v>
@@ -7971,16 +7971,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C213" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D213" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E213" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F213">
         <v>92</v>
@@ -7995,13 +7995,13 @@
         <v>173</v>
       </c>
       <c r="C214" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D214" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E214" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F214">
         <v>704</v>
@@ -8016,13 +8016,13 @@
         <v>172</v>
       </c>
       <c r="C215" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D215" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E215" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F215">
         <v>548</v>
@@ -8037,13 +8037,13 @@
         <v>136</v>
       </c>
       <c r="C216" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D216" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E216" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F216">
         <v>882</v>
@@ -8058,13 +8058,13 @@
         <v>174</v>
       </c>
       <c r="C217" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D217" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E217" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F217">
         <v>887</v>
@@ -8076,16 +8076,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C218" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D218" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E218" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F218">
         <v>886</v>
@@ -8097,16 +8097,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C219" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D219" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E219" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F219">
         <v>890</v>
@@ -8121,13 +8121,13 @@
         <v>148</v>
       </c>
       <c r="C220" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D220" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E220" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F220">
         <v>710</v>
@@ -8142,13 +8142,13 @@
         <v>175</v>
       </c>
       <c r="C221" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D221" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E221" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F221">
         <v>894</v>
@@ -8163,13 +8163,13 @@
         <v>176</v>
       </c>
       <c r="C222" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D222" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E222" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F222">
         <v>716</v>
@@ -8405,7 +8405,7 @@
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8417,16 +8417,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8434,10 +8434,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -8445,10 +8445,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -8456,10 +8456,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -8467,10 +8467,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -8478,13 +8478,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D6" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -8492,10 +8492,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -8503,10 +8503,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -8514,13 +8514,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -8528,13 +8528,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D10" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -8542,13 +8542,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D11" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -8556,13 +8556,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -8570,13 +8570,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -8584,13 +8584,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D14" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -8598,13 +8598,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D15" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -8612,13 +8612,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D16" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -8626,13 +8626,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>454</v>
-      </c>
       <c r="D17" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -8640,13 +8640,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8654,13 +8654,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D19" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8668,13 +8668,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D20" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -8682,10 +8682,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8693,10 +8693,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -8704,10 +8704,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -8715,10 +8715,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -8726,10 +8726,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -8737,10 +8737,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -8748,10 +8748,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -8759,10 +8759,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -8770,10 +8770,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -8781,10 +8781,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -8792,10 +8792,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -8803,10 +8803,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -8814,10 +8814,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -8825,10 +8825,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -8836,10 +8836,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -8847,10 +8847,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -8858,10 +8858,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -8869,10 +8869,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -8880,10 +8880,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -8891,10 +8891,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -8902,10 +8902,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -8913,10 +8913,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -8924,10 +8924,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C43" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -8935,10 +8935,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -8947,10 +8947,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -8959,10 +8959,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -8971,10 +8971,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -8983,10 +8983,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I48" s="2"/>
       <c r="K48" s="2"/>
@@ -8997,10 +8997,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I49" s="2"/>
       <c r="K49" s="2"/>
@@ -9011,10 +9011,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I50" s="2"/>
       <c r="M50" s="2"/>
@@ -9024,10 +9024,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I51" s="2"/>
       <c r="M51" s="2"/>
@@ -9037,10 +9037,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I52" s="2"/>
       <c r="M52" s="2"/>
@@ -9050,10 +9050,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C53" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I53" s="2"/>
       <c r="M53" s="2"/>
@@ -9063,10 +9063,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C54" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I54" s="2"/>
       <c r="M54" s="2"/>
@@ -9076,10 +9076,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I55" s="2"/>
       <c r="M55" s="2"/>
@@ -9089,10 +9089,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C56" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I56" s="2"/>
       <c r="M56" s="2"/>
@@ -9102,10 +9102,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C57" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I57" s="2"/>
       <c r="M57" s="2"/>
@@ -9115,10 +9115,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C58" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I58" s="2"/>
       <c r="M58" s="2"/>
@@ -9128,10 +9128,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C59" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I59" s="2"/>
       <c r="M59" s="2"/>
@@ -9141,10 +9141,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I60" s="2"/>
       <c r="M60" s="2"/>
@@ -9154,10 +9154,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C61" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I61" s="2"/>
       <c r="M61" s="2"/>
@@ -9167,10 +9167,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C62" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -9179,10 +9179,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -9191,10 +9191,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -9206,7 +9206,7 @@
         <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -9215,10 +9215,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -9227,10 +9227,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C67" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -9239,10 +9239,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C68" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -9251,10 +9251,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C69" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -9263,10 +9263,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C70" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -9275,10 +9275,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C71" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -9287,10 +9287,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C72" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -9298,10 +9298,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" t="s">
         <v>491</v>
-      </c>
-      <c r="C73" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -9309,10 +9309,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C74" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -9320,10 +9320,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C75" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -9331,10 +9331,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C76" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -9342,10 +9342,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C77" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -9376,19 +9376,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -9396,16 +9396,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -9414,13 +9414,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E3" s="5">
         <v>260111</v>
@@ -9432,16 +9432,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -9450,13 +9450,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E5" s="5">
         <v>260112</v>
@@ -9468,13 +9468,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E6" s="5">
         <v>260120</v>
@@ -9486,13 +9486,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E7" s="5">
         <v>260200</v>
@@ -9504,16 +9504,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -9522,13 +9522,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E9" s="11">
         <v>720310</v>
@@ -9540,13 +9540,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E10" s="11">
         <v>720390</v>
@@ -9558,16 +9558,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -9576,13 +9576,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E12" s="11">
         <v>720110</v>
@@ -9594,13 +9594,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E13" s="11">
         <v>720120</v>
@@ -9612,13 +9612,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E14" s="11">
         <v>720150</v>
@@ -9630,16 +9630,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -9648,13 +9648,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E16" s="11">
         <v>720211</v>
@@ -9666,13 +9666,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E17" s="11">
         <v>720219</v>
@@ -9683,13 +9683,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E18" s="11">
         <v>720221</v>
@@ -9700,13 +9700,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E19" s="11">
         <v>720229</v>
@@ -9718,13 +9718,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E20" s="11">
         <v>720230</v>
@@ -9736,13 +9736,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E21" s="11">
         <v>720241</v>
@@ -9754,13 +9754,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E22" s="11">
         <v>720249</v>
@@ -9772,13 +9772,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E23" s="11">
         <v>720250</v>
@@ -9789,13 +9789,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E24" s="11">
         <v>720260</v>
@@ -9806,13 +9806,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E25" s="11">
         <v>720270</v>
@@ -9823,13 +9823,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E26" s="11">
         <v>720280</v>
@@ -9840,13 +9840,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E27" s="11">
         <v>720291</v>
@@ -9857,13 +9857,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E28" s="11">
         <v>720292</v>
@@ -9874,13 +9874,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E29" s="11">
         <v>720293</v>
@@ -9891,13 +9891,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E30" s="11">
         <v>720299</v>
@@ -9908,16 +9908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -9925,16 +9925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -9942,16 +9942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -9959,16 +9959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -9976,16 +9976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -9993,13 +9993,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C36" t="s">
         <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E36">
         <v>720610</v>
@@ -10010,13 +10010,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C37" t="s">
         <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E37">
         <v>720690</v>
@@ -10027,13 +10027,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C38" t="s">
         <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E38">
         <v>721810</v>
@@ -10044,13 +10044,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C39" t="s">
         <v>178</v>
       </c>
       <c r="D39" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E39" s="5">
         <v>722410</v>
@@ -10062,13 +10062,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C40" t="s">
         <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E40" s="5">
         <v>720712</v>
@@ -10080,13 +10080,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C41" t="s">
         <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E41" s="5">
         <v>721891</v>
@@ -10098,13 +10098,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C42" t="s">
         <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E42" s="5">
         <v>721899</v>
@@ -10116,13 +10116,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D43" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E43" s="5">
         <v>720711</v>
@@ -10134,13 +10134,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D44" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E44" s="5">
         <v>720719</v>
@@ -10152,13 +10152,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D45" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E45" s="5">
         <v>720720</v>
@@ -10170,13 +10170,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
         <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E46">
         <v>720810</v>
@@ -10188,13 +10188,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
         <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E47">
         <v>720825</v>
@@ -10206,13 +10206,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
         <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E48">
         <v>720826</v>
@@ -10223,13 +10223,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C49" t="s">
         <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E49">
         <v>720827</v>
@@ -10240,13 +10240,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C50" t="s">
         <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E50">
         <v>720836</v>
@@ -10257,13 +10257,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C51" t="s">
         <v>179</v>
       </c>
       <c r="D51" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E51">
         <v>720837</v>
@@ -10274,13 +10274,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
         <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E52">
         <v>720838</v>
@@ -10291,13 +10291,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
         <v>179</v>
       </c>
       <c r="D53" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E53">
         <v>720839</v>
@@ -10308,13 +10308,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C54" t="s">
         <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E54">
         <v>720840</v>
@@ -10325,13 +10325,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C55" t="s">
         <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E55">
         <v>720851</v>
@@ -10342,13 +10342,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
         <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E56">
         <v>720852</v>
@@ -10359,13 +10359,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C57" t="s">
         <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E57">
         <v>720853</v>
@@ -10376,13 +10376,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
         <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E58">
         <v>720854</v>
@@ -10393,13 +10393,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C59" t="s">
         <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E59">
         <v>720890</v>
@@ -10410,13 +10410,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C60" t="s">
         <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E60" s="12">
         <v>720915</v>
@@ -10427,13 +10427,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
         <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E61" s="12">
         <v>720916</v>
@@ -10444,13 +10444,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C62" t="s">
         <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E62" s="12">
         <v>720917</v>
@@ -10461,13 +10461,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
         <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E63" s="12">
         <v>720918</v>
@@ -10478,13 +10478,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C64" t="s">
         <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E64" s="12">
         <v>720925</v>
@@ -10495,13 +10495,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
         <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E65" s="12">
         <v>720926</v>
@@ -10512,13 +10512,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
         <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E66" s="12">
         <v>720927</v>
@@ -10529,13 +10529,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
         <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E67" s="12">
         <v>720928</v>
@@ -10546,13 +10546,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C68" t="s">
         <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E68" s="12">
         <v>720990</v>
@@ -10563,13 +10563,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C69" t="s">
         <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E69">
         <v>721011</v>
@@ -10580,13 +10580,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C70" t="s">
         <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E70">
         <v>721012</v>
@@ -10597,13 +10597,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C71" t="s">
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E71">
         <v>721020</v>
@@ -10614,13 +10614,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C72" t="s">
         <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E72">
         <v>721030</v>
@@ -10631,13 +10631,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C73" t="s">
         <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E73">
         <v>721041</v>
@@ -10648,13 +10648,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s">
         <v>179</v>
       </c>
       <c r="D74" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E74">
         <v>721049</v>
@@ -10665,13 +10665,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
         <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E75">
         <v>721050</v>
@@ -10682,13 +10682,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s">
         <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E76">
         <v>721061</v>
@@ -10699,13 +10699,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C77" t="s">
         <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E77">
         <v>721069</v>
@@ -10716,13 +10716,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s">
         <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E78">
         <v>721070</v>
@@ -10733,13 +10733,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s">
         <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E79">
         <v>721090</v>
@@ -10750,13 +10750,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C80" t="s">
         <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E80">
         <v>721113</v>
@@ -10767,13 +10767,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
         <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E81">
         <v>721114</v>
@@ -10784,13 +10784,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C82" t="s">
         <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E82">
         <v>721119</v>
@@ -10801,13 +10801,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C83" t="s">
         <v>179</v>
       </c>
       <c r="D83" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E83">
         <v>721123</v>
@@ -10818,13 +10818,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C84" t="s">
         <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E84">
         <v>721129</v>
@@ -10835,13 +10835,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C85" t="s">
         <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E85">
         <v>721190</v>
@@ -10852,13 +10852,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C86" t="s">
         <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E86">
         <v>721210</v>
@@ -10869,13 +10869,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
         <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E87">
         <v>721220</v>
@@ -10886,13 +10886,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C88" t="s">
         <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E88">
         <v>721230</v>
@@ -10903,13 +10903,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
         <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E89">
         <v>721240</v>
@@ -10920,13 +10920,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E90">
         <v>721250</v>
@@ -10937,13 +10937,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C91" t="s">
         <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E91">
         <v>721260</v>
@@ -10954,13 +10954,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
         <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E92" s="5">
         <v>721911</v>
@@ -10971,13 +10971,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
         <v>179</v>
       </c>
       <c r="D93" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E93" s="5">
         <v>721912</v>
@@ -10988,13 +10988,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
         <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E94" s="5">
         <v>721913</v>
@@ -11005,13 +11005,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
         <v>179</v>
       </c>
       <c r="D95" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E95" s="5">
         <v>721914</v>
@@ -11022,13 +11022,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
         <v>179</v>
       </c>
       <c r="D96" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E96" s="5">
         <v>721921</v>
@@ -11039,13 +11039,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
         <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E97" s="5">
         <v>721922</v>
@@ -11056,13 +11056,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
         <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E98" s="5">
         <v>721923</v>
@@ -11073,13 +11073,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
         <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E99" s="5">
         <v>721924</v>
@@ -11090,13 +11090,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
         <v>179</v>
       </c>
       <c r="D100" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E100" s="5">
         <v>721931</v>
@@ -11107,13 +11107,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
         <v>179</v>
       </c>
       <c r="D101" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E101" s="5">
         <v>721932</v>
@@ -11124,13 +11124,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
         <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E102" s="5">
         <v>721933</v>
@@ -11141,13 +11141,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s">
         <v>179</v>
       </c>
       <c r="D103" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E103" s="5">
         <v>721934</v>
@@ -11158,13 +11158,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
         <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E104" s="5">
         <v>721935</v>
@@ -11175,13 +11175,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
         <v>179</v>
       </c>
       <c r="D105" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E105" s="5">
         <v>721990</v>
@@ -11192,13 +11192,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
         <v>179</v>
       </c>
       <c r="D106" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E106" s="5">
         <v>722011</v>
@@ -11209,13 +11209,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C107" t="s">
         <v>179</v>
       </c>
       <c r="D107" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E107" s="5">
         <v>722012</v>
@@ -11226,13 +11226,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C108" t="s">
         <v>179</v>
       </c>
       <c r="D108" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E108" s="5">
         <v>722020</v>
@@ -11243,13 +11243,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C109" t="s">
         <v>179</v>
       </c>
       <c r="D109" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E109" s="5">
         <v>722090</v>
@@ -11260,13 +11260,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C110" t="s">
         <v>179</v>
       </c>
       <c r="D110" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E110">
         <v>722511</v>
@@ -11277,13 +11277,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C111" t="s">
         <v>179</v>
       </c>
       <c r="D111" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E111">
         <v>722519</v>
@@ -11294,13 +11294,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C112" t="s">
         <v>179</v>
       </c>
       <c r="D112" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E112">
         <v>722520</v>
@@ -11311,13 +11311,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C113" t="s">
         <v>179</v>
       </c>
       <c r="D113" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E113">
         <v>722530</v>
@@ -11328,13 +11328,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C114" t="s">
         <v>179</v>
       </c>
       <c r="D114" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E114">
         <v>722540</v>
@@ -11345,13 +11345,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C115" t="s">
         <v>179</v>
       </c>
       <c r="D115" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E115">
         <v>722550</v>
@@ -11362,13 +11362,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
         <v>179</v>
       </c>
       <c r="D116" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E116">
         <v>722591</v>
@@ -11379,13 +11379,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C117" t="s">
         <v>179</v>
       </c>
       <c r="D117" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E117">
         <v>722592</v>
@@ -11396,13 +11396,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C118" t="s">
         <v>179</v>
       </c>
       <c r="D118" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E118">
         <v>722599</v>
@@ -11413,13 +11413,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C119" t="s">
         <v>179</v>
       </c>
       <c r="D119" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E119">
         <v>722611</v>
@@ -11430,13 +11430,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C120" t="s">
         <v>179</v>
       </c>
       <c r="D120" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E120">
         <v>722619</v>
@@ -11447,13 +11447,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C121" t="s">
         <v>179</v>
       </c>
       <c r="D121" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E121">
         <v>722620</v>
@@ -11464,13 +11464,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C122" t="s">
         <v>179</v>
       </c>
       <c r="D122" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E122">
         <v>722691</v>
@@ -11481,13 +11481,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
         <v>179</v>
       </c>
       <c r="D123" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E123">
         <v>722692</v>
@@ -11498,13 +11498,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
         <v>179</v>
       </c>
       <c r="D124" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E124">
         <v>722693</v>
@@ -11515,13 +11515,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C125" t="s">
         <v>179</v>
       </c>
       <c r="D125" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E125">
         <v>722694</v>
@@ -11532,13 +11532,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C126" t="s">
         <v>179</v>
       </c>
       <c r="D126" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E126">
         <v>722699</v>
@@ -11549,13 +11549,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C127" t="s">
         <v>180</v>
       </c>
       <c r="D127" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E127" s="12">
         <v>721310</v>
@@ -11566,13 +11566,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C128" t="s">
         <v>180</v>
       </c>
       <c r="D128" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E128" s="12">
         <v>721320</v>
@@ -11583,13 +11583,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C129" t="s">
         <v>180</v>
       </c>
       <c r="D129" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E129" s="12">
         <v>721331</v>
@@ -11600,13 +11600,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C130" t="s">
         <v>180</v>
       </c>
       <c r="D130" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E130" s="12">
         <v>721339</v>
@@ -11617,13 +11617,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C131" t="s">
         <v>180</v>
       </c>
       <c r="D131" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E131" s="12">
         <v>721341</v>
@@ -11634,13 +11634,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C132" t="s">
         <v>180</v>
       </c>
       <c r="D132" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E132" s="12">
         <v>721349</v>
@@ -11651,13 +11651,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C133" t="s">
         <v>180</v>
       </c>
       <c r="D133" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E133" s="12">
         <v>721350</v>
@@ -11668,13 +11668,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C134" t="s">
         <v>180</v>
       </c>
       <c r="D134" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E134" s="12">
         <v>721410</v>
@@ -11685,13 +11685,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C135" t="s">
         <v>180</v>
       </c>
       <c r="D135" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E135" s="12">
         <v>721420</v>
@@ -11702,13 +11702,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C136" t="s">
         <v>180</v>
       </c>
       <c r="D136" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E136" s="12">
         <v>721430</v>
@@ -11719,13 +11719,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C137" t="s">
         <v>180</v>
       </c>
       <c r="D137" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E137" s="12">
         <v>721440</v>
@@ -11736,13 +11736,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C138" t="s">
         <v>180</v>
       </c>
       <c r="D138" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E138" s="12">
         <v>721450</v>
@@ -11753,13 +11753,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C139" t="s">
         <v>180</v>
       </c>
       <c r="D139" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E139" s="12">
         <v>721460</v>
@@ -11770,13 +11770,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s">
         <v>180</v>
       </c>
       <c r="D140" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E140" s="12">
         <v>721510</v>
@@ -11787,13 +11787,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C141" t="s">
         <v>180</v>
       </c>
       <c r="D141" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E141" s="12">
         <v>721520</v>
@@ -11804,13 +11804,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C142" t="s">
         <v>180</v>
       </c>
       <c r="D142" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E142" s="12">
         <v>721530</v>
@@ -11821,13 +11821,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
         <v>180</v>
       </c>
       <c r="D143" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E143" s="12">
         <v>721540</v>
@@ -11838,13 +11838,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C144" t="s">
         <v>180</v>
       </c>
       <c r="D144" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E144" s="12">
         <v>721590</v>
@@ -11855,13 +11855,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
         <v>180</v>
       </c>
       <c r="D145" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E145" s="12">
         <v>721610</v>
@@ -11872,13 +11872,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C146" t="s">
         <v>180</v>
       </c>
       <c r="D146" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E146" s="12">
         <v>721621</v>
@@ -11889,13 +11889,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s">
         <v>180</v>
       </c>
       <c r="D147" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E147" s="12">
         <v>721622</v>
@@ -11906,13 +11906,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C148" t="s">
         <v>180</v>
       </c>
       <c r="D148" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E148" s="12">
         <v>721631</v>
@@ -11923,13 +11923,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C149" t="s">
         <v>180</v>
       </c>
       <c r="D149" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E149" s="12">
         <v>721632</v>
@@ -11940,13 +11940,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C150" t="s">
         <v>180</v>
       </c>
       <c r="D150" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E150" s="12">
         <v>721633</v>
@@ -11957,13 +11957,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C151" t="s">
         <v>180</v>
       </c>
       <c r="D151" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E151" s="12">
         <v>721640</v>
@@ -11974,13 +11974,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C152" t="s">
         <v>180</v>
       </c>
       <c r="D152" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E152" s="12">
         <v>721650</v>
@@ -11991,13 +11991,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C153" t="s">
         <v>180</v>
       </c>
       <c r="D153" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E153" s="12">
         <v>721660</v>
@@ -12008,13 +12008,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C154" t="s">
         <v>180</v>
       </c>
       <c r="D154" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E154" s="12">
         <v>721690</v>
@@ -12025,13 +12025,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C155" t="s">
         <v>180</v>
       </c>
       <c r="D155" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E155" s="12">
         <v>721711</v>
@@ -12042,13 +12042,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C156" t="s">
         <v>180</v>
       </c>
       <c r="D156" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E156" s="12">
         <v>721712</v>
@@ -12059,13 +12059,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
         <v>180</v>
       </c>
       <c r="D157" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E157" s="12">
         <v>721713</v>
@@ -12076,13 +12076,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C158" t="s">
         <v>180</v>
       </c>
       <c r="D158" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E158" s="12">
         <v>721719</v>
@@ -12093,13 +12093,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C159" t="s">
         <v>180</v>
       </c>
       <c r="D159" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E159" s="12">
         <v>721721</v>
@@ -12110,13 +12110,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C160" t="s">
         <v>180</v>
       </c>
       <c r="D160" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E160" s="12">
         <v>721722</v>
@@ -12127,13 +12127,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C161" t="s">
         <v>180</v>
       </c>
       <c r="D161" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E161" s="12">
         <v>721723</v>
@@ -12144,13 +12144,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C162" t="s">
         <v>180</v>
       </c>
       <c r="D162" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E162" s="12">
         <v>721729</v>
@@ -12161,13 +12161,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C163" t="s">
         <v>180</v>
       </c>
       <c r="D163" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E163" s="12">
         <v>721731</v>
@@ -12178,13 +12178,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C164" t="s">
         <v>180</v>
       </c>
       <c r="D164" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E164" s="12">
         <v>721732</v>
@@ -12195,13 +12195,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C165" t="s">
         <v>180</v>
       </c>
       <c r="D165" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E165" s="12">
         <v>721733</v>
@@ -12212,13 +12212,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C166" t="s">
         <v>180</v>
       </c>
       <c r="D166" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E166" s="12">
         <v>721739</v>
@@ -12229,13 +12229,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C167" t="s">
         <v>180</v>
       </c>
       <c r="D167" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E167">
         <v>722100</v>
@@ -12246,13 +12246,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C168" t="s">
         <v>180</v>
       </c>
       <c r="D168" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E168">
         <v>722211</v>
@@ -12263,13 +12263,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C169" t="s">
         <v>180</v>
       </c>
       <c r="D169" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E169">
         <v>722219</v>
@@ -12280,13 +12280,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C170" t="s">
         <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E170">
         <v>722220</v>
@@ -12297,13 +12297,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C171" t="s">
         <v>180</v>
       </c>
       <c r="D171" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E171">
         <v>722230</v>
@@ -12314,13 +12314,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C172" t="s">
         <v>180</v>
       </c>
       <c r="D172" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E172">
         <v>722240</v>
@@ -12331,13 +12331,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
       </c>
       <c r="D173" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E173">
         <v>722300</v>
@@ -12348,13 +12348,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C174" t="s">
         <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E174">
         <v>722710</v>
@@ -12365,13 +12365,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C175" t="s">
         <v>180</v>
       </c>
       <c r="D175" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E175">
         <v>722720</v>
@@ -12382,13 +12382,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C176" t="s">
         <v>180</v>
       </c>
       <c r="D176" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E176">
         <v>722790</v>
@@ -12399,13 +12399,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C177" t="s">
         <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E177">
         <v>722810</v>
@@ -12416,13 +12416,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C178" t="s">
         <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E178">
         <v>722820</v>
@@ -12433,13 +12433,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C179" t="s">
         <v>180</v>
       </c>
       <c r="D179" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E179">
         <v>722830</v>
@@ -12450,13 +12450,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C180" t="s">
         <v>180</v>
       </c>
       <c r="D180" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E180">
         <v>722840</v>
@@ -12467,13 +12467,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C181" t="s">
         <v>180</v>
       </c>
       <c r="D181" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E181">
         <v>722850</v>
@@ -12484,13 +12484,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C182" t="s">
         <v>180</v>
       </c>
       <c r="D182" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E182">
         <v>722860</v>
@@ -12501,13 +12501,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C183" t="s">
         <v>180</v>
       </c>
       <c r="D183" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E183">
         <v>722870</v>
@@ -12518,13 +12518,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C184" t="s">
         <v>180</v>
       </c>
       <c r="D184" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E184">
         <v>722880</v>
@@ -12535,13 +12535,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C185" t="s">
         <v>180</v>
       </c>
       <c r="D185" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E185">
         <v>722910</v>
@@ -12552,13 +12552,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C186" t="s">
         <v>180</v>
       </c>
       <c r="D186" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E186">
         <v>722920</v>
@@ -12569,13 +12569,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C187" t="s">
         <v>180</v>
       </c>
       <c r="D187" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E187">
         <v>722990</v>
@@ -12586,13 +12586,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C188" t="s">
         <v>180</v>
       </c>
       <c r="D188" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E188">
         <v>730110</v>
@@ -12603,13 +12603,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C189" t="s">
         <v>180</v>
       </c>
       <c r="D189" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E189">
         <v>730120</v>
@@ -12620,13 +12620,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C190" t="s">
         <v>180</v>
       </c>
       <c r="D190" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E190">
         <v>730210</v>
@@ -12637,13 +12637,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C191" t="s">
         <v>180</v>
       </c>
       <c r="D191" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E191">
         <v>730220</v>
@@ -12654,13 +12654,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C192" t="s">
         <v>180</v>
       </c>
       <c r="D192" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E192">
         <v>730230</v>
@@ -12671,13 +12671,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C193" t="s">
         <v>180</v>
       </c>
       <c r="D193" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E193">
         <v>730240</v>
@@ -12688,13 +12688,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C194" t="s">
         <v>180</v>
       </c>
       <c r="D194" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E194">
         <v>730290</v>
@@ -12705,13 +12705,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C195" t="s">
         <v>180</v>
       </c>
       <c r="D195" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E195">
         <v>730410</v>
@@ -12722,13 +12722,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C196" t="s">
         <v>180</v>
       </c>
       <c r="D196" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E196">
         <v>730420</v>
@@ -12739,13 +12739,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C197" t="s">
         <v>180</v>
       </c>
       <c r="D197" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E197">
         <v>730431</v>
@@ -12756,13 +12756,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C198" t="s">
         <v>180</v>
       </c>
       <c r="D198" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E198">
         <v>730439</v>
@@ -12773,13 +12773,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C199" t="s">
         <v>180</v>
       </c>
       <c r="D199" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E199">
         <v>730441</v>
@@ -12790,13 +12790,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C200" t="s">
         <v>180</v>
       </c>
       <c r="D200" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E200">
         <v>730449</v>
@@ -12807,13 +12807,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C201" t="s">
         <v>180</v>
       </c>
       <c r="D201" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E201">
         <v>730451</v>
@@ -12824,13 +12824,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C202" t="s">
         <v>180</v>
       </c>
       <c r="D202" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E202">
         <v>730459</v>
@@ -12841,13 +12841,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s">
         <v>180</v>
       </c>
       <c r="D203" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E203">
         <v>730490</v>
@@ -12858,13 +12858,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C204" t="s">
         <v>180</v>
       </c>
       <c r="D204" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E204">
         <v>730511</v>
@@ -12875,13 +12875,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C205" t="s">
         <v>180</v>
       </c>
       <c r="D205" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E205">
         <v>730512</v>
@@ -12892,13 +12892,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C206" t="s">
         <v>180</v>
       </c>
       <c r="D206" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E206">
         <v>730519</v>
@@ -12909,13 +12909,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C207" t="s">
         <v>180</v>
       </c>
       <c r="D207" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E207">
         <v>730520</v>
@@ -12926,13 +12926,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
         <v>180</v>
       </c>
       <c r="D208" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E208">
         <v>730531</v>
@@ -12943,13 +12943,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C209" t="s">
         <v>180</v>
       </c>
       <c r="D209" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E209">
         <v>730539</v>
@@ -12960,13 +12960,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C210" t="s">
         <v>180</v>
       </c>
       <c r="D210" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E210">
         <v>730590</v>
@@ -12977,13 +12977,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C211" t="s">
         <v>180</v>
       </c>
       <c r="D211" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E211">
         <v>730610</v>
@@ -12994,13 +12994,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C212" t="s">
         <v>180</v>
       </c>
       <c r="D212" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E212">
         <v>730620</v>
@@ -13011,13 +13011,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C213" t="s">
         <v>180</v>
       </c>
       <c r="D213" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E213">
         <v>730630</v>
@@ -13028,13 +13028,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C214" t="s">
         <v>180</v>
       </c>
       <c r="D214" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E214">
         <v>730640</v>
@@ -13045,13 +13045,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C215" t="s">
         <v>180</v>
       </c>
       <c r="D215" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E215">
         <v>730650</v>
@@ -13062,13 +13062,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C216" t="s">
         <v>180</v>
       </c>
       <c r="D216" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E216">
         <v>730660</v>
@@ -13079,13 +13079,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C217" t="s">
         <v>180</v>
       </c>
       <c r="D217" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E217">
         <v>730690</v>
@@ -13096,13 +13096,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C218" t="s">
         <v>180</v>
       </c>
       <c r="D218" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E218">
         <v>730711</v>
@@ -13113,13 +13113,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C219" t="s">
         <v>180</v>
       </c>
       <c r="D219" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E219">
         <v>730719</v>
@@ -13130,13 +13130,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C220" t="s">
         <v>180</v>
       </c>
       <c r="D220" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E220">
         <v>730721</v>
@@ -13147,13 +13147,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C221" t="s">
         <v>180</v>
       </c>
       <c r="D221" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E221">
         <v>730722</v>
@@ -13164,13 +13164,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C222" t="s">
         <v>180</v>
       </c>
       <c r="D222" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E222">
         <v>730723</v>
@@ -13181,13 +13181,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C223" t="s">
         <v>180</v>
       </c>
       <c r="D223" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E223">
         <v>730729</v>
@@ -13198,13 +13198,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C224" t="s">
         <v>180</v>
       </c>
       <c r="D224" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E224">
         <v>730791</v>
@@ -13215,13 +13215,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C225" t="s">
         <v>180</v>
       </c>
       <c r="D225" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E225">
         <v>730792</v>
@@ -13232,13 +13232,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C226" t="s">
         <v>180</v>
       </c>
       <c r="D226" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E226">
         <v>730793</v>
@@ -13249,13 +13249,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C227" t="s">
         <v>180</v>
       </c>
       <c r="D227" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E227">
         <v>730799</v>
@@ -13266,13 +13266,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C228" t="s">
         <v>180</v>
       </c>
       <c r="D228" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E228">
         <v>730810</v>
@@ -13283,13 +13283,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C229" t="s">
         <v>180</v>
       </c>
       <c r="D229" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E229">
         <v>730820</v>
@@ -13300,13 +13300,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C230" t="s">
         <v>180</v>
       </c>
       <c r="D230" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E230">
         <v>730830</v>
@@ -13317,13 +13317,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C231" t="s">
         <v>180</v>
       </c>
       <c r="D231" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E231">
         <v>730840</v>
@@ -13334,13 +13334,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C232" t="s">
         <v>180</v>
       </c>
       <c r="D232" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E232">
         <v>730890</v>
@@ -13351,13 +13351,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C233" t="s">
         <v>195</v>
       </c>
       <c r="D233" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E233">
         <v>730300</v>
@@ -13368,13 +13368,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C234" t="s">
         <v>195</v>
       </c>
       <c r="D234" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E234" s="12">
         <v>730711</v>
@@ -13391,10 +13391,10 @@
         <v>190</v>
       </c>
       <c r="D235" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
@@ -13408,10 +13408,10 @@
         <v>191</v>
       </c>
       <c r="D236" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
@@ -13419,16 +13419,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C237" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D237" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
@@ -13436,16 +13436,16 @@
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C238" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D238" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
@@ -13453,16 +13453,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C239" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D239" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
@@ -13470,16 +13470,16 @@
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C240" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D240" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
@@ -13487,16 +13487,16 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C241" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D241" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
@@ -13504,16 +13504,16 @@
         <v>241</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C242" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D242" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -13521,16 +13521,16 @@
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C243" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D243" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
@@ -13538,16 +13538,16 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C244" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D244" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
@@ -13555,16 +13555,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C245" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D245" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
@@ -13572,16 +13572,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C246" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D246" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
@@ -13589,16 +13589,16 @@
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C247" t="s">
+        <v>203</v>
+      </c>
+      <c r="D247" t="s">
         <v>517</v>
       </c>
-      <c r="C247" t="s">
-        <v>205</v>
-      </c>
-      <c r="D247" t="s">
-        <v>520</v>
-      </c>
       <c r="E247" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
@@ -13606,16 +13606,16 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C248" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D248" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
@@ -13623,16 +13623,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C249" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D249" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
@@ -13640,13 +13640,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C250" t="s">
         <v>194</v>
       </c>
       <c r="D250" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E250">
         <v>720410</v>
@@ -13657,13 +13657,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C251" t="s">
         <v>194</v>
       </c>
       <c r="D251" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E251">
         <v>720421</v>
@@ -13674,13 +13674,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C252" t="s">
         <v>194</v>
       </c>
       <c r="D252" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E252">
         <v>720429</v>
@@ -13691,13 +13691,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C253" t="s">
         <v>194</v>
       </c>
       <c r="D253" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E253">
         <v>720430</v>
@@ -13708,13 +13708,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C254" t="s">
         <v>194</v>
       </c>
       <c r="D254" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E254">
         <v>720441</v>
@@ -13725,13 +13725,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C255" t="s">
         <v>194</v>
       </c>
       <c r="D255" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E255">
         <v>720449</v>
@@ -13742,13 +13742,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C256" t="s">
         <v>194</v>
       </c>
       <c r="D256" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E256">
         <v>720450</v>
@@ -13762,13 +13762,13 @@
         <v>181</v>
       </c>
       <c r="C257" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D257" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
@@ -13779,13 +13779,13 @@
         <v>182</v>
       </c>
       <c r="C258" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D258" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
@@ -13796,13 +13796,13 @@
         <v>183</v>
       </c>
       <c r="C259" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D259" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
@@ -13813,13 +13813,13 @@
         <v>184</v>
       </c>
       <c r="C260" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D260" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
@@ -13830,13 +13830,13 @@
         <v>185</v>
       </c>
       <c r="C261" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D261" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
@@ -13847,13 +13847,13 @@
         <v>186</v>
       </c>
       <c r="C262" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D262" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
@@ -13864,13 +13864,13 @@
         <v>187</v>
       </c>
       <c r="C263" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D263" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
@@ -13881,13 +13881,13 @@
         <v>188</v>
       </c>
       <c r="C264" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D264" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
@@ -13898,13 +13898,13 @@
         <v>189</v>
       </c>
       <c r="C265" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D265" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
@@ -13912,16 +13912,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C266" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D266" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
@@ -13929,16 +13929,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C267" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D267" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -13965,10 +13965,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -13976,7 +13976,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -13992,7 +13992,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -14000,7 +14000,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -14008,7 +14008,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -14016,7 +14016,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -14024,7 +14024,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -14032,7 +14032,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -14040,7 +14040,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -14048,7 +14048,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -14070,8 +14070,8 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14082,13 +14082,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -14096,10 +14096,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>1041</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -14107,10 +14107,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
+        <v>192</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -14118,10 +14118,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>504</v>
+        <v>1040</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -14129,10 +14129,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
+        <v>925</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -14140,10 +14140,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>928</v>
+        <v>958</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -14151,10 +14151,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>929</v>
+        <v>1042</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -14162,10 +14162,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>930</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -14173,10 +14173,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>961</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -14184,10 +14184,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>506</v>
+        <v>926</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -14195,10 +14195,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>503</v>
+        <v>927</v>
+      </c>
+      <c r="C11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -14206,10 +14206,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>503</v>
+      </c>
+      <c r="C12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -14217,10 +14217,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -14228,102 +14228,102 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/ConcordanceLibrary/LabelsAndCodes/PIOLab_RootClassification.xlsx
+++ b/ConcordanceLibrary/LabelsAndCodes/PIOLab_RootClassification.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1044">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -3160,6 +3160,9 @@
   </si>
   <si>
     <t>Limonite</t>
+  </si>
+  <si>
+    <t>Inputs from production-consumption system</t>
   </si>
 </sst>
 </file>
@@ -14071,7 +14074,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14096,10 +14099,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C2" t="s">
-        <v>501</v>
+        <v>192</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -14107,7 +14110,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>500</v>
@@ -14118,7 +14121,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1040</v>
+        <v>925</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>500</v>
@@ -14129,10 +14132,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>925</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>500</v>
+        <v>1041</v>
+      </c>
+      <c r="C5" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -14197,8 +14200,8 @@
       <c r="B11" t="s">
         <v>927</v>
       </c>
-      <c r="C11" t="s">
-        <v>501</v>
+      <c r="C11" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -14220,7 +14223,7 @@
         <v>504</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>500</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
